--- a/xlsx/联邦主义_intext.xlsx
+++ b/xlsx/联邦主义_intext.xlsx
@@ -15,729 +15,738 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="244">
   <si>
     <t>联邦主义</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6</t>
+  </si>
+  <si>
+    <t>联邦制</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_联邦主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E5%88%B6</t>
+  </si>
+  <si>
+    <t>邦联制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>欧盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E8%81%94%E9%82%A6%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>德国联邦参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E7%90%86%E4%BA%8B%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>欧盟理事会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
+  </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>北爱尔兰问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B4%9B%E9%94%A1%E5%AE%89%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>西洛锡安问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%98</t>
+  </si>
+  <si>
+    <t>二战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AF%A6%E9%AB%94</t>
+  </si>
+  <si>
+    <t>政治实体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%87%8D%E5%9C%8B%E7%B1%8D</t>
+  </si>
+  <si>
+    <t>双重国籍</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94</t>
+  </si>
+  <si>
+    <t>邦联</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%9C%E9%9A%9B%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>府际关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>维基词典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%B8%96%E7%95%8C%E4%B8%BB%E4%B9%89%E5%92%8C%E4%B8%96%E7%95%8C%E6%94%BF%E5%BA%9C%E4%B8%93%E9%A2%98</t>
+  </si>
+  <si>
+    <t>Template talk-世界主义和世界政府专题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>世界主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>世界政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%9C%8B%E5%AE%B6%E4%B8%BB%E7%BE%A9_(%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82)</t>
+  </si>
+  <si>
+    <t>超国家主义 (国际关系)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%96%93%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>政府间主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%B0%91%E6%97%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>反民族主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
+  </si>
+  <si>
+    <t>全球化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%92%8C%E5%B9%B3%E8%AB%96</t>
+  </si>
+  <si>
+    <t>民主和平论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%A7%80%E5%A4%96%E4%BA%A4</t>
+  </si>
+  <si>
+    <t>价值观外交</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>全球帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%92%8C%E5%B9%B3</t>
+  </si>
+  <si>
+    <t>世界和平</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6</t>
+  </si>
+  <si>
+    <t>联邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>全球主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>国际组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E5%8D%81%E5%AD%97%E5%9B%BD%E9%99%85%E5%A7%94%E5%91%98%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>红十字国际委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E5%8D%81%E5%AD%97%E4%BC%9A%E4%B8%8E%E7%BA%A2%E6%96%B0%E6%9C%88%E4%BC%9A%E5%9B%BD%E9%99%85%E8%81%94%E5%90%88%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>红十字会与红新月会国际联合会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>世界贸易组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%93%B6%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>世界银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%A7%E5%B8%81%E5%9F%BA%E9%87%91%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>国际货币基金组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%88%91%E8%AD%A6%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>国际刑警组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%8C%96%E7%B5%84%E7%B9%94</t>
+  </si>
+  <si>
+    <t>国际标准化组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>二十国集团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%AE%AE%E4%BC%9A%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>各国议会联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%A4%A7%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>联合国大会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%AE%AE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>欧洲议会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AE%AE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>阿拉伯议会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%8E%A5%E8%AD%B0%E6%9C%83</t>
+  </si>
+  <si>
+    <t>突厥议会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%AE%BE%E4%BB%B2%E8%A3%81%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>常设仲裁法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>国际法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%88%91%E4%BA%8B%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>国际刑事法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E4%BC%A6%E5%A0%A1%E5%AE%A1%E5%88%A4</t>
+  </si>
+  <si>
+    <t>纽伦堡审判</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%9C%E4%B8%9C%E5%9B%BD%E9%99%85%E5%86%9B%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
+  </si>
+  <si>
+    <t>远东国际军事法庭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E9%97%AE%E9%A2%98%E5%9B%BD%E9%99%85%E5%88%91%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
+  </si>
+  <si>
+    <t>前南斯拉夫问题国际刑事法庭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE%E9%97%AE%E9%A2%98%E5%9B%BD%E9%99%85%E5%88%91%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
+  </si>
+  <si>
+    <t>卢旺达问题国际刑事法庭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E6%B3%95%E9%99%A2%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
+  </si>
+  <si>
+    <t>柬埔寨法院特别法庭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82%E7%89%B9%E5%88%AB%E6%B3%95%E5%BA%AD</t>
+  </si>
+  <si>
+    <t>塞拉利昂特别法庭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>欧洲法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E4%BA%BA%E6%9D%83%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>欧洲人权法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>亚洲太平洋经济合作组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>东南亚国家联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%85%B1%E5%90%8C%E4%BD%93</t>
+  </si>
+  <si>
+    <t>太平洋共同体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%B2%9B%E5%9B%BD%E8%AE%BA%E5%9D%9B</t>
+  </si>
+  <si>
+    <t>太平洋岛国论坛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>上海合作组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%94%E9%82%A6</t>
+  </si>
+  <si>
+    <t>英联邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E%E5%9B%BD%E5%AE%B6%E7%BB%8F%E6%B5%8E%E5%85%B1%E5%90%8C%E4%BD%93</t>
+  </si>
+  <si>
+    <t>西非国家经济共同体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E9%9D%9E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E7%BB%8F%E6%B5%8E%E5%85%B1%E5%90%8C%E4%BD%93</t>
+  </si>
+  <si>
+    <t>中部非洲国家经济共同体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
+  </si>
+  <si>
+    <t>法语圈国际组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>北大西洋公约组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%BD%93%E5%AE%89%E5%85%A8%E6%9D%A1%E7%BA%A6%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>集体安全条约组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A7%94%E5%93%A1%E6%9C%83</t>
+  </si>
+  <si>
+    <t>欧洲委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>欧洲联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>拉丁语联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>非洲联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>阿拉伯国家联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%BC%9A%E8%AE%AE%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>伊斯兰会议组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A%E5%8C%BA%E5%9F%9F%E5%90%88%E4%BD%9C%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>南亚区域合作联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%9D%9E%E5%85%B1%E5%90%8C%E4%BD%93</t>
+  </si>
+  <si>
+    <t>东非共同体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>加勒比国家联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2%E7%B5%B1%E5%90%88%E9%AB%94</t>
+  </si>
+  <si>
+    <t>中美洲统合体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>南美洲国家联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>美洲国家组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E8%81%AF%E5%90%88%E9%AB%94</t>
+  </si>
+  <si>
+    <t>独立国家联合体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%B1%E5%90%8C%E5%B8%82%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>南方共同市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%9F%BA%E7%A1%80%E8%AE%BE%E6%96%BD%E6%8A%95%E8%B5%84%E9%93%B6%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>亚洲基础设施投资银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B3%95</t>
+  </si>
+  <si>
+    <t>国际法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E4%BA%BA%E9%81%93%E6%B3%95</t>
+  </si>
+  <si>
+    <t>国际人道法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%A7%81%E6%B3%95</t>
+  </si>
+  <si>
+    <t>国际私法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%86%85%E7%93%A6%E5%85%AC%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>日内瓦公约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%AA%E7%AB%A0</t>
+  </si>
+  <si>
+    <t>联合国宪章</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%88%91%E4%BA%8B%E6%B3%95%E9%99%A2%E7%BD%97%E9%A9%AC%E8%A7%84%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>国际刑事法院罗马规约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E8%AE%AE%E5%AE%9A%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>京都议定书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F%E5%9F%BA%E6%9C%AC%E6%A2%9D%E7%B4%84</t>
+  </si>
+  <si>
+    <t>欧洲联盟基本条约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>欧盟法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%8D%94%E8%AD%B0</t>
+  </si>
+  <si>
+    <t>巴黎协议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>国际联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E6%B2%99%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>华沙公约组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%9B%BD%E9%99%85</t>
+  </si>
+  <si>
+    <t>第三国际</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E4%BA%9E%E5%85%B1%E6%A6%AE%E5%9C%88</t>
+  </si>
+  <si>
+    <t>大东亚共荣圈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BA%92%E5%8A%A9%E5%A7%94%E5%91%98%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>经济互助委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>大英帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E8%AE%AE%E4%BC%9A%E5%A4%A7%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>联合国议会大会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E5%90%88%E4%BC%97%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>非洲合众国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9A%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>中亚联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%85%E5%B7%B4%E5%90%88%E7%9C%BE%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>欧罗巴合众国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%85%B1%E5%90%8C%E9%AB%94</t>
+  </si>
+  <si>
+    <t>东亚共同体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%81%AF%E9%82%A6</t>
+  </si>
+  <si>
+    <t>中华联邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BA%A2%E5%8D%81%E5%AD%97%E4%B8%8E%E7%BA%A2%E6%96%B0%E6%9C%88%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>国际红十字与红新月运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%85%AC%E6%B0%91</t>
+  </si>
+  <si>
+    <t>世界公民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E4%BC%8A%E4%BF%A1%E4%BB%B0</t>
+  </si>
+  <si>
+    <t>巴哈伊信仰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%BE%85%E5%8A%A9%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>国际辅助语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>世界语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%BB%E8%BE%91%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>逻辑语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6</t>
-  </si>
-  <si>
-    <t>联邦制</t>
-  </si>
-  <si>
-    <t>政策_政策_政治_联邦主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E5%88%B6</t>
-  </si>
-  <si>
-    <t>邦联制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治哲学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>欧盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E8%81%94%E9%82%A6%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>德国联邦参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E7%90%86%E4%BA%8B%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>欧盟理事会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>北爱尔兰问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B4%9B%E9%94%A1%E5%AE%89%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>西洛锡安问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%98</t>
-  </si>
-  <si>
-    <t>二战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AF%A6%E9%AB%94</t>
-  </si>
-  <si>
-    <t>政治實體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%87%8D%E5%9C%8B%E7%B1%8D</t>
-  </si>
-  <si>
-    <t>雙重國籍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94</t>
-  </si>
-  <si>
-    <t>邦联</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%9C%E9%9A%9B%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>府際關係</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>維基詞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%B8%96%E7%95%8C%E4%B8%BB%E4%B9%89%E5%92%8C%E4%B8%96%E7%95%8C%E6%94%BF%E5%BA%9C%E4%B8%93%E9%A2%98</t>
-  </si>
-  <si>
-    <t>Template talk-世界主义和世界政府专题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>世界主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>世界政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%9C%8B%E5%AE%B6%E4%B8%BB%E7%BE%A9_(%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82)</t>
-  </si>
-  <si>
-    <t>超國家主義 (國際關係)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%96%93%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>政府間主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%B0%91%E6%97%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>反民族主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
-  </si>
-  <si>
-    <t>全球化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%92%8C%E5%B9%B3%E8%AB%96</t>
-  </si>
-  <si>
-    <t>民主和平論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%A7%80%E5%A4%96%E4%BA%A4</t>
-  </si>
-  <si>
-    <t>價值觀外交</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>全球帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%92%8C%E5%B9%B3</t>
-  </si>
-  <si>
-    <t>世界和平</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6</t>
-  </si>
-  <si>
-    <t>联邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>全球主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>国际组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>联合国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E5%8D%81%E5%AD%97%E5%9B%BD%E9%99%85%E5%A7%94%E5%91%98%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>红十字国际委员会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E5%8D%81%E5%AD%97%E4%BC%9A%E4%B8%8E%E7%BA%A2%E6%96%B0%E6%9C%88%E4%BC%9A%E5%9B%BD%E9%99%85%E8%81%94%E5%90%88%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>红十字会与红新月会国际联合会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>世界贸易组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%93%B6%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>世界银行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%A7%E5%B8%81%E5%9F%BA%E9%87%91%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>国际货币基金组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%88%91%E8%AD%A6%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>国际刑警组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%8C%96%E7%B5%84%E7%B9%94</t>
-  </si>
-  <si>
-    <t>國際標準化組織</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>二十国集团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%AE%AE%E4%BC%9A%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>各国议会联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%A4%A7%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>联合国大会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%AE%AE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>欧洲议会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AE%AE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>阿拉伯议会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%8E%A5%E8%AD%B0%E6%9C%83</t>
-  </si>
-  <si>
-    <t>突厥議會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%AE%BE%E4%BB%B2%E8%A3%81%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>常设仲裁法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>国际法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%88%91%E4%BA%8B%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>国际刑事法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E4%BC%A6%E5%A0%A1%E5%AE%A1%E5%88%A4</t>
-  </si>
-  <si>
-    <t>纽伦堡审判</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%9C%E4%B8%9C%E5%9B%BD%E9%99%85%E5%86%9B%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
-  </si>
-  <si>
-    <t>远东国际军事法庭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E9%97%AE%E9%A2%98%E5%9B%BD%E9%99%85%E5%88%91%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
-  </si>
-  <si>
-    <t>前南斯拉夫问题国际刑事法庭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE%E9%97%AE%E9%A2%98%E5%9B%BD%E9%99%85%E5%88%91%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
-  </si>
-  <si>
-    <t>卢旺达问题国际刑事法庭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E6%B3%95%E9%99%A2%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
-  </si>
-  <si>
-    <t>柬埔寨法院特別法庭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82%E7%89%B9%E5%88%AB%E6%B3%95%E5%BA%AD</t>
-  </si>
-  <si>
-    <t>塞拉利昂特别法庭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>欧洲法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E4%BA%BA%E6%9D%83%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>欧洲人权法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>亚洲太平洋经济合作组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>东南亚国家联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%85%B1%E5%90%8C%E4%BD%93</t>
-  </si>
-  <si>
-    <t>太平洋共同体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%B2%9B%E5%9B%BD%E8%AE%BA%E5%9D%9B</t>
-  </si>
-  <si>
-    <t>太平洋岛国论坛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>上海合作组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%94%E9%82%A6</t>
-  </si>
-  <si>
-    <t>英联邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E%E5%9B%BD%E5%AE%B6%E7%BB%8F%E6%B5%8E%E5%85%B1%E5%90%8C%E4%BD%93</t>
-  </si>
-  <si>
-    <t>西非国家经济共同体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E9%9D%9E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E7%BB%8F%E6%B5%8E%E5%85%B1%E5%90%8C%E4%BD%93</t>
-  </si>
-  <si>
-    <t>中部非洲国家经济共同体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
-  </si>
-  <si>
-    <t>法語圈國際組織</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>北大西洋公约组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%BD%93%E5%AE%89%E5%85%A8%E6%9D%A1%E7%BA%A6%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>集体安全条约组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A7%94%E5%93%A1%E6%9C%83</t>
-  </si>
-  <si>
-    <t>歐洲委員會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>欧洲联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>拉丁语联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>非洲联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>阿拉伯国家联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%BC%9A%E8%AE%AE%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>伊斯兰会议组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A%E5%8C%BA%E5%9F%9F%E5%90%88%E4%BD%9C%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>南亚区域合作联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%9D%9E%E5%85%B1%E5%90%8C%E4%BD%93</t>
-  </si>
-  <si>
-    <t>东非共同体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>加勒比国家联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2%E7%B5%B1%E5%90%88%E9%AB%94</t>
-  </si>
-  <si>
-    <t>中美洲統合體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>南美洲国家联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>美洲国家组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E8%81%AF%E5%90%88%E9%AB%94</t>
-  </si>
-  <si>
-    <t>獨立國家聯合體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%B1%E5%90%8C%E5%B8%82%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>南方共同市場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%9F%BA%E7%A1%80%E8%AE%BE%E6%96%BD%E6%8A%95%E8%B5%84%E9%93%B6%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>亚洲基础设施投资银行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B3%95</t>
-  </si>
-  <si>
-    <t>国际法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E4%BA%BA%E9%81%93%E6%B3%95</t>
-  </si>
-  <si>
-    <t>国际人道法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%A7%81%E6%B3%95</t>
-  </si>
-  <si>
-    <t>国际私法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%86%85%E7%93%A6%E5%85%AC%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>日内瓦公约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%AA%E7%AB%A0</t>
-  </si>
-  <si>
-    <t>联合国宪章</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%88%91%E4%BA%8B%E6%B3%95%E9%99%A2%E7%BD%97%E9%A9%AC%E8%A7%84%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>国际刑事法院罗马规约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E8%AE%AE%E5%AE%9A%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>京都议定书</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F%E5%9F%BA%E6%9C%AC%E6%A2%9D%E7%B4%84</t>
-  </si>
-  <si>
-    <t>歐洲聯盟基本條約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>欧盟法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%8D%94%E8%AD%B0</t>
-  </si>
-  <si>
-    <t>巴黎協議</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>国际联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E6%B2%99%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>华沙公约组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%9B%BD%E9%99%85</t>
-  </si>
-  <si>
-    <t>第三国际</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E4%BA%9E%E5%85%B1%E6%A6%AE%E5%9C%88</t>
-  </si>
-  <si>
-    <t>大東亞共榮圈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BA%92%E5%8A%A9%E5%A7%94%E5%91%98%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>经济互助委员会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>大英帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E8%AE%AE%E4%BC%9A%E5%A4%A7%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>联合国议会大会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E5%90%88%E4%BC%97%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>非洲合众国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9A%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>中亚联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%85%E5%B7%B4%E5%90%88%E7%9C%BE%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>歐羅巴合眾國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%85%B1%E5%90%8C%E9%AB%94</t>
-  </si>
-  <si>
-    <t>東亞共同體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%81%AF%E9%82%A6</t>
-  </si>
-  <si>
-    <t>中華聯邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BA%A2%E5%8D%81%E5%AD%97%E4%B8%8E%E7%BA%A2%E6%96%B0%E6%9C%88%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>国际红十字与红新月运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%85%AC%E6%B0%91</t>
-  </si>
-  <si>
-    <t>世界公民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E4%BC%8A%E4%BF%A1%E4%BB%B0</t>
-  </si>
-  <si>
-    <t>巴哈伊信仰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%BE%85%E5%8A%A9%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>国际辅助语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>世界语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%BB%E8%BE%91%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>逻辑语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4571,6 +4580,64 @@
         <v>3</v>
       </c>
     </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>241</v>
+      </c>
+      <c r="F121" t="s">
+        <v>242</v>
+      </c>
+      <c r="G121" t="n">
+        <v>8</v>
+      </c>
+      <c r="H121" t="s">
+        <v>4</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>121</v>
+      </c>
+      <c r="E122" t="s">
+        <v>241</v>
+      </c>
+      <c r="F122" t="s">
+        <v>243</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="s">
+        <v>4</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/联邦主义_intext.xlsx
+++ b/xlsx/联邦主义_intext.xlsx
@@ -29,7 +29,7 @@
     <t>联邦制</t>
   </si>
   <si>
-    <t>政策_政策_政治_联邦主义</t>
+    <t>体育运动_体育运动_欧洲议会_联邦主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E5%88%B6</t>
